--- a/Sesión-23-09/Análisis.xlsx
+++ b/Sesión-23-09/Análisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SENA\Ficha 94\Sesiones-2468294\Sesión-23-09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976DBF60-3B5F-46DD-9506-C82DB30C31EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315783A0-0C87-4F07-9BD5-42FB2C1631C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{2395F2E3-0E8F-49C0-8656-7632DFBFA61A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{2395F2E3-0E8F-49C0-8656-7632DFBFA61A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>AREQUIPE</t>
+  </si>
+  <si>
+    <t>FRIJOL</t>
   </si>
 </sst>
 </file>
@@ -819,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB9A5FE-921C-471E-B4A0-E17FA7BE063F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -987,7 +990,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194F1CA3-20FB-4E23-9910-BD221115463D}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
